--- a/MicroGrids/Results/Output.xlsx
+++ b/MicroGrids/Results/Output.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loren\Dropbox\MicroGrids\Github\Multi-Investment\Micro-Grids\MicroGrids\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95FA1FF3-262E-406D-88DF-F58E3F1B4298}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2655F359-CD82-4D4A-8EED-5D6D2AF01031}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21157" windowHeight="7842" activeTab="1" xr2:uid="{6A510E2A-20F6-40B0-B227-07C364357881}"/>
   </bookViews>
@@ -107,7 +107,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,24 +141,24 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="38">
+  <borders count="47">
     <border>
       <left/>
       <right/>
@@ -633,12 +633,128 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -746,9 +862,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -760,15 +873,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -809,6 +913,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -827,33 +938,102 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="44" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="46" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="20% - Accent4" xfId="2" builtinId="42"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -15985,10 +16165,10 @@
   <sheetData>
     <row r="1" spans="3:49" ht="6.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="3:49" x14ac:dyDescent="0.3">
-      <c r="C2" s="53" t="s">
+      <c r="C2" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="49">
+      <c r="D2" s="45">
         <v>5</v>
       </c>
       <c r="E2" s="17">
@@ -16128,10 +16308,10 @@
       </c>
     </row>
     <row r="3" spans="3:49" x14ac:dyDescent="0.3">
-      <c r="C3" s="54" t="s">
+      <c r="C3" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="50">
+      <c r="D3" s="46">
         <v>1</v>
       </c>
       <c r="E3" s="10">
@@ -16271,10 +16451,10 @@
       </c>
     </row>
     <row r="4" spans="3:49" x14ac:dyDescent="0.3">
-      <c r="C4" s="54" t="s">
+      <c r="C4" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="50">
+      <c r="D4" s="46">
         <v>0</v>
       </c>
       <c r="E4" s="10">
@@ -16414,10 +16594,10 @@
       </c>
     </row>
     <row r="5" spans="3:49" x14ac:dyDescent="0.3">
-      <c r="C5" s="55" t="s">
+      <c r="C5" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="51">
+      <c r="D5" s="47">
         <v>0.6</v>
       </c>
       <c r="E5" s="14">
@@ -16557,10 +16737,10 @@
       </c>
     </row>
     <row r="6" spans="3:49" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="56" t="s">
+      <c r="C6" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="52" t="s">
+      <c r="D6" s="48" t="s">
         <v>9</v>
       </c>
       <c r="E6" s="12" t="s">
@@ -16741,7 +16921,7 @@
       <c r="AW7" s="2"/>
     </row>
     <row r="8" spans="3:49" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C8" s="57" t="s">
+      <c r="C8" s="53" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="4">
@@ -16884,7 +17064,7 @@
       </c>
     </row>
     <row r="9" spans="3:49" x14ac:dyDescent="0.3">
-      <c r="C9" s="58" t="s">
+      <c r="C9" s="57" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="6">
@@ -17027,7 +17207,7 @@
       </c>
     </row>
     <row r="10" spans="3:49" x14ac:dyDescent="0.3">
-      <c r="C10" s="59"/>
+      <c r="C10" s="58"/>
       <c r="D10" s="2"/>
       <c r="E10" s="7"/>
       <c r="F10" s="2">
@@ -17156,7 +17336,7 @@
       </c>
     </row>
     <row r="11" spans="3:49" x14ac:dyDescent="0.3">
-      <c r="C11" s="59"/>
+      <c r="C11" s="58"/>
       <c r="D11" s="2"/>
       <c r="E11" s="7"/>
       <c r="F11" s="2"/>
@@ -17260,7 +17440,7 @@
       </c>
     </row>
     <row r="12" spans="3:49" x14ac:dyDescent="0.3">
-      <c r="C12" s="59"/>
+      <c r="C12" s="58"/>
       <c r="D12" s="2"/>
       <c r="E12" s="7"/>
       <c r="F12" s="2"/>
@@ -17341,7 +17521,7 @@
       </c>
     </row>
     <row r="13" spans="3:49" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C13" s="60"/>
+      <c r="C13" s="59"/>
       <c r="D13" s="9"/>
       <c r="E13" s="8"/>
       <c r="F13" s="9"/>
@@ -17414,7 +17594,7 @@
       </c>
     </row>
     <row r="14" spans="3:49" x14ac:dyDescent="0.3">
-      <c r="C14" s="58" t="s">
+      <c r="C14" s="57" t="s">
         <v>20</v>
       </c>
       <c r="D14" s="6">
@@ -17557,7 +17737,7 @@
       </c>
     </row>
     <row r="15" spans="3:49" x14ac:dyDescent="0.3">
-      <c r="C15" s="59"/>
+      <c r="C15" s="58"/>
       <c r="D15" s="2"/>
       <c r="E15" s="7"/>
       <c r="F15" s="2">
@@ -17686,7 +17866,7 @@
       </c>
     </row>
     <row r="16" spans="3:49" x14ac:dyDescent="0.3">
-      <c r="C16" s="59"/>
+      <c r="C16" s="58"/>
       <c r="D16" s="2"/>
       <c r="E16" s="7"/>
       <c r="F16" s="2"/>
@@ -17791,7 +17971,7 @@
       </c>
     </row>
     <row r="17" spans="1:49" x14ac:dyDescent="0.3">
-      <c r="C17" s="59"/>
+      <c r="C17" s="58"/>
       <c r="D17" s="2"/>
       <c r="E17" s="7"/>
       <c r="F17" s="2"/>
@@ -17872,7 +18052,7 @@
       </c>
     </row>
     <row r="18" spans="1:49" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C18" s="60"/>
+      <c r="C18" s="59"/>
       <c r="D18" s="9"/>
       <c r="E18" s="8"/>
       <c r="F18" s="9"/>
@@ -17945,7 +18125,7 @@
       </c>
     </row>
     <row r="19" spans="1:49" x14ac:dyDescent="0.3">
-      <c r="C19" s="58" t="s">
+      <c r="C19" s="57" t="s">
         <v>5</v>
       </c>
       <c r="D19" s="6">
@@ -18088,7 +18268,7 @@
       </c>
     </row>
     <row r="20" spans="1:49" x14ac:dyDescent="0.3">
-      <c r="C20" s="59"/>
+      <c r="C20" s="58"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2">
@@ -18217,7 +18397,7 @@
       </c>
     </row>
     <row r="21" spans="1:49" x14ac:dyDescent="0.3">
-      <c r="C21" s="59"/>
+      <c r="C21" s="58"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -18322,7 +18502,7 @@
       </c>
     </row>
     <row r="22" spans="1:49" x14ac:dyDescent="0.3">
-      <c r="C22" s="59"/>
+      <c r="C22" s="58"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
@@ -18403,7 +18583,7 @@
       </c>
     </row>
     <row r="23" spans="1:49" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C23" s="60"/>
+      <c r="C23" s="59"/>
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
@@ -18482,12 +18662,12 @@
       </c>
       <c r="B27" s="19"/>
       <c r="C27" s="19"/>
-      <c r="D27" s="61" t="s">
+      <c r="D27" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="E27" s="62"/>
-      <c r="F27" s="62"/>
-      <c r="G27" s="63"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="61"/>
+      <c r="G27" s="62"/>
     </row>
     <row r="28" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A28" s="27"/>
@@ -18821,17 +19001,17 @@
       <c r="J43"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D45" s="72"/>
-      <c r="E45" s="72"/>
-      <c r="F45" s="72"/>
-      <c r="G45" s="72"/>
-      <c r="H45" s="72"/>
+      <c r="D45" s="56"/>
+      <c r="E45" s="56"/>
+      <c r="F45" s="56"/>
+      <c r="G45" s="56"/>
+      <c r="H45" s="56"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D48" s="72"/>
-      <c r="E48" s="72"/>
-      <c r="F48" s="72"/>
-      <c r="G48" s="72"/>
+      <c r="D48" s="56"/>
+      <c r="E48" s="56"/>
+      <c r="F48" s="56"/>
+      <c r="G48" s="56"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D59" s="1">
@@ -18958,7 +19138,7 @@
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18967,10 +19147,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="49">
+      <c r="B1" s="45">
         <v>5</v>
       </c>
       <c r="C1" s="17">
@@ -18982,7 +19162,7 @@
       <c r="E1" s="16">
         <v>5</v>
       </c>
-      <c r="F1" s="38">
+      <c r="F1" s="37">
         <v>10</v>
       </c>
       <c r="G1" s="16">
@@ -18991,24 +19171,24 @@
       <c r="H1" s="17">
         <v>10</v>
       </c>
-      <c r="I1" s="45">
+      <c r="I1" s="41">
         <v>10</v>
       </c>
-      <c r="J1" s="38">
+      <c r="J1" s="37">
         <v>15</v>
       </c>
       <c r="K1" s="17">
         <v>15</v>
       </c>
-      <c r="L1" s="45">
+      <c r="L1" s="41">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="50">
+      <c r="B2" s="46">
         <v>1</v>
       </c>
       <c r="C2" s="10">
@@ -19020,7 +19200,7 @@
       <c r="E2" s="11">
         <v>5</v>
       </c>
-      <c r="F2" s="39">
+      <c r="F2" s="38">
         <v>1</v>
       </c>
       <c r="G2" s="11">
@@ -19029,24 +19209,24 @@
       <c r="H2" s="10">
         <v>3</v>
       </c>
-      <c r="I2" s="46">
+      <c r="I2" s="42">
         <v>5</v>
       </c>
-      <c r="J2" s="39">
+      <c r="J2" s="38">
         <v>1</v>
       </c>
       <c r="K2" s="10">
         <v>3</v>
       </c>
-      <c r="L2" s="46">
+      <c r="L2" s="42">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="50">
+      <c r="B3" s="46">
         <v>0</v>
       </c>
       <c r="C3" s="10">
@@ -19058,7 +19238,7 @@
       <c r="E3" s="11">
         <v>0</v>
       </c>
-      <c r="F3" s="39">
+      <c r="F3" s="38">
         <v>0</v>
       </c>
       <c r="G3" s="11">
@@ -19067,24 +19247,24 @@
       <c r="H3" s="10">
         <v>0</v>
       </c>
-      <c r="I3" s="46">
+      <c r="I3" s="42">
         <v>0</v>
       </c>
-      <c r="J3" s="39">
+      <c r="J3" s="38">
         <v>0</v>
       </c>
       <c r="K3" s="10">
         <v>0</v>
       </c>
-      <c r="L3" s="46">
+      <c r="L3" s="42">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="51">
+      <c r="B4" s="47">
         <v>0</v>
       </c>
       <c r="C4" s="14">
@@ -19096,7 +19276,7 @@
       <c r="E4" s="15">
         <v>0</v>
       </c>
-      <c r="F4" s="40">
+      <c r="F4" s="39">
         <v>0</v>
       </c>
       <c r="G4" s="15">
@@ -19105,24 +19285,24 @@
       <c r="H4" s="14">
         <v>0</v>
       </c>
-      <c r="I4" s="47">
+      <c r="I4" s="43">
         <v>0</v>
       </c>
-      <c r="J4" s="40">
+      <c r="J4" s="39">
         <v>0</v>
       </c>
       <c r="K4" s="14">
         <v>0</v>
       </c>
-      <c r="L4" s="47">
+      <c r="L4" s="43">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="56" t="s">
+      <c r="A5" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="48" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="12" t="s">
@@ -19134,7 +19314,7 @@
       <c r="E5" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="41" t="s">
+      <c r="F5" s="40" t="s">
         <v>8</v>
       </c>
       <c r="G5" s="13" t="s">
@@ -19143,506 +19323,506 @@
       <c r="H5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="48" t="s">
+      <c r="I5" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="J5" s="41" t="s">
+      <c r="J5" s="40" t="s">
         <v>8</v>
       </c>
       <c r="K5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="48" t="s">
+      <c r="L5" s="44" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="18">
+      <c r="B6" s="90">
         <v>197541</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="92">
         <v>188257</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="92">
         <v>185963</v>
       </c>
-      <c r="E6" s="44">
+      <c r="E6" s="89">
         <v>183353</v>
       </c>
-      <c r="F6" s="18">
+      <c r="F6" s="90">
         <v>500825</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="92">
         <v>432952</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="92">
         <v>418454</v>
       </c>
-      <c r="I6" s="44">
+      <c r="I6" s="89">
         <v>406046</v>
       </c>
-      <c r="J6" s="18">
+      <c r="J6" s="90">
         <v>1093287</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" s="92">
         <v>760695</v>
       </c>
-      <c r="L6" s="44">
+      <c r="L6" s="89">
         <v>725856</v>
       </c>
     </row>
-    <row r="7" spans="1:14" s="67" customFormat="1" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="65" t="s">
+    <row r="7" spans="1:14" s="55" customFormat="1" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="68">
+      <c r="B7" s="91">
         <v>0</v>
       </c>
-      <c r="C7" s="69">
+      <c r="C7" s="93">
         <f>(C6-$B$6)/$B$6</f>
         <v>-4.69978384234159E-2</v>
       </c>
-      <c r="D7" s="69">
-        <f t="shared" ref="D7:F7" si="0">(D6-$B$6)/$B$6</f>
+      <c r="D7" s="93">
+        <f t="shared" ref="D7:E7" si="0">(D6-$B$6)/$B$6</f>
         <v>-5.8610617542687343E-2</v>
       </c>
-      <c r="E7" s="70">
+      <c r="E7" s="64">
         <f t="shared" si="0"/>
         <v>-7.1823064578998785E-2</v>
       </c>
-      <c r="F7" s="71">
+      <c r="F7" s="91">
         <f>(F6-$F$6)/$F$6</f>
         <v>0</v>
       </c>
-      <c r="G7" s="69">
+      <c r="G7" s="93">
         <f t="shared" ref="G7:I7" si="1">(G6-$F$6)/$F$6</f>
         <v>-0.13552238805970149</v>
       </c>
-      <c r="H7" s="69">
+      <c r="H7" s="93">
         <f t="shared" si="1"/>
         <v>-0.16447062347127239</v>
       </c>
-      <c r="I7" s="70">
+      <c r="I7" s="64">
         <f t="shared" si="1"/>
         <v>-0.18924574452153947</v>
       </c>
-      <c r="J7" s="71">
+      <c r="J7" s="91">
         <f>(J6-$J$6)/$J$6</f>
         <v>0</v>
       </c>
-      <c r="K7" s="69">
+      <c r="K7" s="93">
         <f t="shared" ref="K7:L7" si="2">(K6-$J$6)/$J$6</f>
         <v>-0.30421289194877466</v>
       </c>
-      <c r="L7" s="70">
+      <c r="L7" s="64">
         <f t="shared" si="2"/>
         <v>-0.3360791814043339</v>
       </c>
-      <c r="M7" s="66"/>
+      <c r="M7" s="54"/>
       <c r="N7" s="28"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="58" t="s">
+      <c r="A8" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="71">
         <v>0</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="72">
         <v>0</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="73">
         <v>0</v>
       </c>
-      <c r="E8" s="42">
+      <c r="E8" s="74">
         <v>0</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="71">
         <v>0</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="72">
         <v>0</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="73">
         <v>0</v>
       </c>
-      <c r="I8" s="42">
+      <c r="I8" s="74">
         <v>0</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="71">
         <v>0</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8" s="73">
         <v>0</v>
       </c>
-      <c r="L8" s="42">
+      <c r="L8" s="74">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="59"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="7">
+      <c r="A9" s="69"/>
+      <c r="B9" s="75"/>
+      <c r="C9" s="66">
         <v>0</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="65">
         <v>0</v>
       </c>
-      <c r="E9" s="43">
+      <c r="E9" s="76">
         <v>0</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="7">
+      <c r="F9" s="75"/>
+      <c r="G9" s="66">
         <v>0</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="65">
         <v>0</v>
       </c>
-      <c r="I9" s="43">
+      <c r="I9" s="76">
         <v>0</v>
       </c>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2">
+      <c r="J9" s="75"/>
+      <c r="K9" s="65">
         <v>0</v>
       </c>
-      <c r="L9" s="43">
+      <c r="L9" s="76">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="59"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="2">
+      <c r="A10" s="69"/>
+      <c r="B10" s="75"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="65">
         <v>0</v>
       </c>
-      <c r="E10" s="22">
+      <c r="E10" s="77">
         <v>0</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="2">
+      <c r="F10" s="75"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="65">
         <v>0</v>
       </c>
-      <c r="I10" s="22">
+      <c r="I10" s="77">
         <v>0</v>
       </c>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2">
+      <c r="J10" s="75"/>
+      <c r="K10" s="65">
         <v>0</v>
       </c>
-      <c r="L10" s="22">
+      <c r="L10" s="77">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="59"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="22">
+      <c r="A11" s="69"/>
+      <c r="B11" s="75"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="77">
         <v>0</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="22">
+      <c r="F11" s="75"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="77">
         <v>0</v>
       </c>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="22">
+      <c r="J11" s="75"/>
+      <c r="K11" s="65"/>
+      <c r="L11" s="77">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="60"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="25">
+      <c r="A12" s="70"/>
+      <c r="B12" s="78"/>
+      <c r="C12" s="85"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="80">
         <v>0</v>
       </c>
-      <c r="F12" s="9"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="25">
+      <c r="F12" s="78"/>
+      <c r="G12" s="85"/>
+      <c r="H12" s="79"/>
+      <c r="I12" s="80">
         <v>0</v>
       </c>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="25">
+      <c r="J12" s="78"/>
+      <c r="K12" s="79"/>
+      <c r="L12" s="80">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="58" t="s">
+      <c r="A13" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="71">
         <v>51805</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="73">
         <v>39576</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="73">
         <v>29980</v>
       </c>
-      <c r="E13" s="44">
+      <c r="E13" s="86">
         <v>24938</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="71">
         <v>128908</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="73">
         <v>51805</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="73">
         <v>35976</v>
       </c>
-      <c r="I13" s="44">
+      <c r="I13" s="86">
         <v>29980</v>
       </c>
-      <c r="J13" s="6">
+      <c r="J13" s="71">
         <v>320764</v>
       </c>
-      <c r="K13" s="2">
+      <c r="K13" s="73">
         <v>51805</v>
       </c>
-      <c r="L13" s="44">
+      <c r="L13" s="86">
         <v>35976</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="59"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="7">
+      <c r="A14" s="69"/>
+      <c r="B14" s="75"/>
+      <c r="C14" s="66">
         <v>51805</v>
       </c>
-      <c r="D14" s="37">
+      <c r="D14" s="67">
         <v>43171</v>
       </c>
-      <c r="E14" s="22">
+      <c r="E14" s="77">
         <v>29980</v>
       </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="7">
+      <c r="F14" s="75"/>
+      <c r="G14" s="66">
         <v>128908</v>
       </c>
-      <c r="H14" s="37">
+      <c r="H14" s="67">
         <v>62166</v>
       </c>
-      <c r="I14" s="22">
+      <c r="I14" s="77">
         <v>43171</v>
       </c>
-      <c r="J14" s="2"/>
-      <c r="K14" s="37">
+      <c r="J14" s="75"/>
+      <c r="K14" s="67">
         <v>128908</v>
       </c>
-      <c r="L14" s="22">
+      <c r="L14" s="77">
         <v>62166</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="59"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="2">
+      <c r="A15" s="69"/>
+      <c r="B15" s="75"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="65">
         <v>51805</v>
       </c>
-      <c r="E15" s="22">
+      <c r="E15" s="77">
         <v>35976</v>
       </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="2">
+      <c r="F15" s="75"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="65">
         <v>128908</v>
       </c>
-      <c r="I15" s="22">
+      <c r="I15" s="77">
         <v>62166</v>
       </c>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2">
+      <c r="J15" s="75"/>
+      <c r="K15" s="65">
         <v>320764</v>
       </c>
-      <c r="L15" s="22">
+      <c r="L15" s="77">
         <v>107423</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="59"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="22">
+      <c r="A16" s="69"/>
+      <c r="B16" s="75"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="77">
         <v>43171</v>
       </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="22">
+      <c r="F16" s="75"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="77">
         <v>89519</v>
       </c>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="22">
+      <c r="J16" s="75"/>
+      <c r="K16" s="65"/>
+      <c r="L16" s="77">
         <v>185627</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="60"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="25">
+      <c r="A17" s="70"/>
+      <c r="B17" s="78"/>
+      <c r="C17" s="85"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="80">
         <v>51805</v>
       </c>
-      <c r="F17" s="9"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="25">
+      <c r="F17" s="78"/>
+      <c r="G17" s="85"/>
+      <c r="H17" s="79"/>
+      <c r="I17" s="80">
         <v>128908</v>
       </c>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="25">
+      <c r="J17" s="78"/>
+      <c r="K17" s="79"/>
+      <c r="L17" s="80">
         <v>320764</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="58" t="s">
+      <c r="A18" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="82">
         <v>0</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="87">
         <v>0</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="83">
         <v>0</v>
       </c>
-      <c r="E18" s="44">
+      <c r="E18" s="84">
         <v>0</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="82">
         <v>0</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="87">
         <v>0</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H18" s="83">
         <v>0</v>
       </c>
-      <c r="I18" s="44">
+      <c r="I18" s="84">
         <v>0</v>
       </c>
-      <c r="J18" s="6">
+      <c r="J18" s="82">
         <v>80</v>
       </c>
-      <c r="K18" s="6">
+      <c r="K18" s="83">
         <v>80</v>
       </c>
-      <c r="L18" s="44">
+      <c r="L18" s="84">
         <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="59"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2">
+      <c r="A19" s="69"/>
+      <c r="B19" s="75"/>
+      <c r="C19" s="65">
         <v>0</v>
       </c>
-      <c r="D19" s="2">
+      <c r="D19" s="65">
         <v>0</v>
       </c>
-      <c r="E19" s="22">
+      <c r="E19" s="77">
         <v>0</v>
       </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2">
+      <c r="F19" s="75"/>
+      <c r="G19" s="65">
         <v>0</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H19" s="65">
         <v>0</v>
       </c>
-      <c r="I19" s="22">
+      <c r="I19" s="77">
         <v>0</v>
       </c>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2">
+      <c r="J19" s="75"/>
+      <c r="K19" s="65">
         <v>80</v>
       </c>
-      <c r="L19" s="22">
+      <c r="L19" s="77">
         <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="59"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2">
+      <c r="A20" s="69"/>
+      <c r="B20" s="75"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="65">
         <v>0</v>
       </c>
-      <c r="E20" s="22">
+      <c r="E20" s="77">
         <v>0</v>
       </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2">
+      <c r="F20" s="75"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="65">
         <v>0</v>
       </c>
-      <c r="I20" s="22">
+      <c r="I20" s="77">
         <v>0</v>
       </c>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2">
+      <c r="J20" s="75"/>
+      <c r="K20" s="65">
         <v>80</v>
       </c>
-      <c r="L20" s="22">
+      <c r="L20" s="77">
         <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="59"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="22">
+      <c r="A21" s="69"/>
+      <c r="B21" s="75"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="77">
         <v>0</v>
       </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="22">
+      <c r="F21" s="75"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="65"/>
+      <c r="I21" s="77">
         <v>0</v>
       </c>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="22">
+      <c r="J21" s="75"/>
+      <c r="K21" s="65"/>
+      <c r="L21" s="77">
         <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="14.95" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="60"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="25">
+      <c r="A22" s="70"/>
+      <c r="B22" s="78"/>
+      <c r="C22" s="79"/>
+      <c r="D22" s="79"/>
+      <c r="E22" s="80">
         <v>0</v>
       </c>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="25">
+      <c r="F22" s="78"/>
+      <c r="G22" s="79"/>
+      <c r="H22" s="79"/>
+      <c r="I22" s="80">
         <v>0</v>
       </c>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="25">
+      <c r="J22" s="78"/>
+      <c r="K22" s="79"/>
+      <c r="L22" s="80">
         <v>110</v>
       </c>
     </row>
